--- a/SQLiteAdmin/leer_xls/plantillas/Lista de Productos.xlsx
+++ b/SQLiteAdmin/leer_xls/plantillas/Lista de Productos.xlsx
@@ -7978,9 +7978,6 @@
     <t>Toallas sanitarias y pañales para bebés</t>
   </si>
   <si>
-    <t>AntigÃ¼edades &gt;100 años</t>
-  </si>
-  <si>
     <t>Algarrobas, caña de azúcar, etc.</t>
   </si>
   <si>
@@ -8144,6 +8141,9 @@
   </si>
   <si>
     <t>Tejidos con &lt;85% de fibras sintéticas discontinuas, con algodón &gt; 170 g/m²</t>
+  </si>
+  <si>
+    <t>Antigüedades &gt;100 años</t>
   </si>
 </sst>
 </file>
@@ -8518,7 +8518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1347" workbookViewId="0">
+      <selection activeCell="C1356" sqref="C1356"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9954,7 +9956,7 @@
         <v>228</v>
       </c>
       <c r="C130" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -10284,7 +10286,7 @@
         <v>283</v>
       </c>
       <c r="C160" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -10394,7 +10396,7 @@
         <v>300</v>
       </c>
       <c r="C170" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -10405,7 +10407,7 @@
         <v>301</v>
       </c>
       <c r="C171" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,7 +10418,7 @@
         <v>302</v>
       </c>
       <c r="C172" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -10438,7 +10440,7 @@
         <v>305</v>
       </c>
       <c r="C174" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -10504,7 +10506,7 @@
         <v>316</v>
       </c>
       <c r="C180" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -11846,7 +11848,7 @@
         <v>522</v>
       </c>
       <c r="C302" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -11912,7 +11914,7 @@
         <v>531</v>
       </c>
       <c r="C308" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -11923,7 +11925,7 @@
         <v>532</v>
       </c>
       <c r="C309" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -11934,7 +11936,7 @@
         <v>533</v>
       </c>
       <c r="C310" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -11945,7 +11947,7 @@
         <v>534</v>
       </c>
       <c r="C311" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -12022,7 +12024,7 @@
         <v>541</v>
       </c>
       <c r="C318" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -12044,7 +12046,7 @@
         <v>543</v>
       </c>
       <c r="C320" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -12055,7 +12057,7 @@
         <v>544</v>
       </c>
       <c r="C321" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -12066,7 +12068,7 @@
         <v>545</v>
       </c>
       <c r="C322" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -12077,7 +12079,7 @@
         <v>546</v>
       </c>
       <c r="C323" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -12088,7 +12090,7 @@
         <v>547</v>
       </c>
       <c r="C324" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -12099,7 +12101,7 @@
         <v>548</v>
       </c>
       <c r="C325" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -12594,7 +12596,7 @@
         <v>623</v>
       </c>
       <c r="C370" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -12605,7 +12607,7 @@
         <v>624</v>
       </c>
       <c r="C371" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -12616,7 +12618,7 @@
         <v>625</v>
       </c>
       <c r="C372" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -12627,7 +12629,7 @@
         <v>626</v>
       </c>
       <c r="C373" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -12638,7 +12640,7 @@
         <v>627</v>
       </c>
       <c r="C374" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -12803,7 +12805,7 @@
         <v>645</v>
       </c>
       <c r="C389" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -12869,7 +12871,7 @@
         <v>655</v>
       </c>
       <c r="C395" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -12913,7 +12915,7 @@
         <v>660</v>
       </c>
       <c r="C399" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -13419,7 +13421,7 @@
         <v>738</v>
       </c>
       <c r="C445" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -13903,7 +13905,7 @@
         <v>801</v>
       </c>
       <c r="C489" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -14640,7 +14642,7 @@
         <v>897</v>
       </c>
       <c r="C556" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -15476,7 +15478,7 @@
         <v>1006</v>
       </c>
       <c r="C632" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -15905,7 +15907,7 @@
         <v>1072</v>
       </c>
       <c r="C671" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -15916,7 +15918,7 @@
         <v>1073</v>
       </c>
       <c r="C672" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -15927,7 +15929,7 @@
         <v>1074</v>
       </c>
       <c r="C673" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -15938,7 +15940,7 @@
         <v>1073</v>
       </c>
       <c r="C674" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -16345,7 +16347,7 @@
         <v>1122</v>
       </c>
       <c r="C711" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -17500,7 +17502,7 @@
         <v>1302</v>
       </c>
       <c r="C816" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
@@ -18116,7 +18118,7 @@
         <v>1385</v>
       </c>
       <c r="C872" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.25">
@@ -18336,7 +18338,7 @@
         <v>1416</v>
       </c>
       <c r="C892" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.25">
@@ -18952,7 +18954,7 @@
         <v>1505</v>
       </c>
       <c r="C948" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.25">
@@ -20118,7 +20120,7 @@
         <v>1671</v>
       </c>
       <c r="C1054" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
@@ -20206,7 +20208,7 @@
         <v>1681</v>
       </c>
       <c r="C1062" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
@@ -20217,7 +20219,7 @@
         <v>1682</v>
       </c>
       <c r="C1063" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
@@ -20239,7 +20241,7 @@
         <v>1685</v>
       </c>
       <c r="C1065" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
@@ -20250,7 +20252,7 @@
         <v>1686</v>
       </c>
       <c r="C1066" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
@@ -20261,7 +20263,7 @@
         <v>1687</v>
       </c>
       <c r="C1067" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
@@ -20272,7 +20274,7 @@
         <v>1688</v>
       </c>
       <c r="C1068" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
@@ -20283,7 +20285,7 @@
         <v>1689</v>
       </c>
       <c r="C1069" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
@@ -20294,7 +20296,7 @@
         <v>1690</v>
       </c>
       <c r="C1070" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
@@ -20624,7 +20626,7 @@
         <v>1738</v>
       </c>
       <c r="C1100" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
@@ -21251,7 +21253,7 @@
         <v>1806</v>
       </c>
       <c r="C1157" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
@@ -21658,7 +21660,7 @@
         <v>1850</v>
       </c>
       <c r="C1194" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
@@ -22483,7 +22485,7 @@
         <v>1949</v>
       </c>
       <c r="C1269" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
@@ -22901,7 +22903,7 @@
         <v>2001</v>
       </c>
       <c r="C1307" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.25">
@@ -22956,7 +22958,7 @@
         <v>2008</v>
       </c>
       <c r="C1312" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.25">
@@ -23528,7 +23530,7 @@
         <v>2089</v>
       </c>
       <c r="C1364" t="s">
-        <v>2654</v>
+        <v>2709</v>
       </c>
     </row>
   </sheetData>
